--- a/test.xlsx
+++ b/test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55A2FEA-AD0F-439C-B373-7CAA2B764E85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8158A93-9579-4C1D-9B05-DE40AFD881EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,306 +25,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>womens athletic jackets lightweight</t>
-  </si>
-  <si>
-    <t>tights and jacket set for women</t>
-  </si>
-  <si>
-    <t>black zipper sweaters for women</t>
-  </si>
-  <si>
-    <t>polyester spandex leggings for women</t>
-  </si>
-  <si>
-    <t>two piece legging set for women</t>
-  </si>
-  <si>
-    <t>cropped two piece</t>
-  </si>
-  <si>
-    <t>jogging sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>athletic crop tops</t>
-  </si>
-  <si>
-    <t>wide leg outfit for women</t>
-  </si>
-  <si>
-    <t>top womens sport</t>
-  </si>
-  <si>
-    <t>womens workout clothes winter</t>
-  </si>
-  <si>
-    <t>exercise sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>workout gym clothes women</t>
-  </si>
-  <si>
-    <t>light pink sweat suits for women</t>
-  </si>
-  <si>
-    <t>winter pants for ladies</t>
-  </si>
-  <si>
-    <t>workout set for women 2 piece</t>
-  </si>
-  <si>
-    <t>sweatsuits for women two piece</t>
-  </si>
-  <si>
-    <t>outfits for winter woman</t>
-  </si>
-  <si>
-    <t>crop top piece set</t>
-  </si>
-  <si>
-    <t>style and co leggings for women</t>
-  </si>
-  <si>
-    <t>matching sets for women outfit sexy</t>
-  </si>
-  <si>
-    <t>winter outfit sets for women</t>
-  </si>
-  <si>
-    <t>yoga pants suit</t>
-  </si>
-  <si>
-    <t>women tights suit</t>
-  </si>
-  <si>
-    <t>gym warm up suits</t>
-  </si>
-  <si>
-    <t>women three piece outfits sets</t>
-  </si>
-  <si>
-    <t>3 pack black leggings for women</t>
-  </si>
-  <si>
-    <t>2 piece joggers sets for women</t>
-  </si>
-  <si>
-    <t>winter running tight women</t>
-  </si>
-  <si>
-    <t>mono de yoga para mujer</t>
-  </si>
-  <si>
-    <t>bodybuilding track pants</t>
-  </si>
-  <si>
-    <t>croptops for womens</t>
-  </si>
-  <si>
-    <t>women 2 piece tracksuit sets</t>
-  </si>
-  <si>
-    <t>cute workout tops women</t>
-  </si>
-  <si>
-    <t>winter 2 piece outfit women</t>
-  </si>
-  <si>
-    <t>women legging sets outfits</t>
-  </si>
-  <si>
-    <t>sweat suits for women set workout</t>
-  </si>
-  <si>
-    <t>active wear two piece sets for women</t>
-  </si>
-  <si>
-    <t>3 piece lounge sets for women</t>
-  </si>
-  <si>
-    <t>womens sweat suits two piece</t>
-  </si>
-  <si>
-    <t>womens work outfits sets</t>
-  </si>
-  <si>
-    <t>womens 2 piece workout outfits</t>
-  </si>
-  <si>
-    <t>cropped athletic tops for women</t>
-  </si>
-  <si>
-    <t>tights sets women 2 piece outfits</t>
-  </si>
-  <si>
-    <t>hotexy womens workout sets 2 piece workout</t>
-  </si>
-  <si>
-    <t>gym set clothing</t>
-  </si>
-  <si>
-    <t>crop athletic tops for women</t>
-  </si>
-  <si>
-    <t>jet joy workout set</t>
-  </si>
-  <si>
-    <t>gym shark 2 piece outfits for women</t>
-  </si>
-  <si>
-    <t>leggings outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>professional clothes for women for work</t>
-  </si>
-  <si>
-    <t>2 pc track suits for women</t>
-  </si>
-  <si>
-    <t>prime clothes for women</t>
-  </si>
-  <si>
-    <t>womens sets 2 piece outfits</t>
-  </si>
-  <si>
-    <t>workout 2 piece outfits for women</t>
-  </si>
-  <si>
-    <t>2 piece legging workout set</t>
-  </si>
-  <si>
-    <t>seamless yoga set</t>
-  </si>
-  <si>
-    <t>tennis clothes for women</t>
-  </si>
-  <si>
-    <t>women jogger outfits sets</t>
-  </si>
-  <si>
-    <t>sweater leggings for women</t>
-  </si>
-  <si>
-    <t>yoga sets for women</t>
-  </si>
-  <si>
-    <t>outfits for women</t>
-  </si>
-  <si>
-    <t>tracksuit womens</t>
-  </si>
-  <si>
-    <t>women compression shirt</t>
-  </si>
-  <si>
-    <t>long sleeve sport shirt women</t>
-  </si>
-  <si>
-    <t>crop long sleeve top</t>
-  </si>
-  <si>
-    <t>zumba outfits for women</t>
-  </si>
-  <si>
-    <t>long sleeve green shirt women</t>
-  </si>
-  <si>
-    <t>compression top women long sleeve</t>
-  </si>
-  <si>
-    <t>two piece sweatsuits for women</t>
-  </si>
-  <si>
-    <t>cropped long sleeve</t>
-  </si>
-  <si>
-    <t>womens blue shirt</t>
-  </si>
-  <si>
-    <t>womens winter clothing</t>
-  </si>
-  <si>
-    <t>fitness sweaters for women</t>
-  </si>
-  <si>
-    <t>finger sports</t>
-  </si>
-  <si>
-    <t>spandex 2 piece</t>
-  </si>
-  <si>
-    <t>cheap suit</t>
-  </si>
-  <si>
-    <t>womens sweats</t>
-  </si>
-  <si>
-    <t>green crop tops for women</t>
-  </si>
-  <si>
-    <t>work out set women</t>
-  </si>
-  <si>
-    <t>2 piece long sleeve outfits for women</t>
-  </si>
-  <si>
-    <t>pink body suit</t>
-  </si>
-  <si>
-    <t>black outfits for women</t>
-  </si>
-  <si>
-    <t>womens exercise</t>
-  </si>
-  <si>
-    <t>sexy workout sets for women</t>
-  </si>
-  <si>
-    <t>leggings sets</t>
-  </si>
-  <si>
-    <t>track suit for women</t>
-  </si>
-  <si>
-    <t>purple sweat suit for women</t>
-  </si>
-  <si>
-    <t>women workout set</t>
-  </si>
-  <si>
-    <t>womens sports crop top</t>
-  </si>
-  <si>
-    <t>womens cropped shirts</t>
-  </si>
-  <si>
-    <t>long sleeve shirts for leggings for women</t>
-  </si>
-  <si>
-    <t>ropa deportiva sexy para mujer</t>
-  </si>
-  <si>
-    <t>sweat sleeve</t>
-  </si>
-  <si>
-    <t>women 2 piece outfits sets</t>
-  </si>
-  <si>
-    <t>sportswear womens gym</t>
-  </si>
-  <si>
-    <t>womens compression shirt</t>
-  </si>
-  <si>
-    <t>gym shirt women</t>
-  </si>
-  <si>
-    <t>womens compression tights</t>
-  </si>
-  <si>
-    <t>track tights</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>womens long sleeve gym shirt</t>
+  </si>
+  <si>
+    <t>crop top with zipper in front</t>
+  </si>
+  <si>
+    <t>blue apparel for women</t>
+  </si>
+  <si>
+    <t>long crop workout top</t>
+  </si>
+  <si>
+    <t>winter fitness clothing</t>
+  </si>
+  <si>
+    <t>outfits for women for gym</t>
+  </si>
+  <si>
+    <t>pans para mujer para frio 2 piezas</t>
+  </si>
+  <si>
+    <t>womens lounge suits sets</t>
+  </si>
+  <si>
+    <t>womens sweat suits on sale</t>
+  </si>
+  <si>
+    <t>green sets women outfit</t>
+  </si>
+  <si>
+    <t>workout sets for women 2 piece outfit</t>
+  </si>
+  <si>
+    <t>shirt gym</t>
+  </si>
+  <si>
+    <t>bodybuilding shirts</t>
+  </si>
+  <si>
+    <t>fitness clothing for women</t>
+  </si>
+  <si>
+    <t>long workout shirts for women</t>
+  </si>
+  <si>
+    <t>womens fitness clothing</t>
+  </si>
+  <si>
+    <t>winter shirts for women</t>
+  </si>
+  <si>
+    <t>velvet two piece set women</t>
+  </si>
+  <si>
+    <t>vs love pink clothing</t>
+  </si>
+  <si>
+    <t>gym clothes long sleeve</t>
+  </si>
+  <si>
+    <t>green 2 piece set for women</t>
+  </si>
+  <si>
+    <t>seamless tights</t>
+  </si>
+  <si>
+    <t>long suit for women</t>
+  </si>
+  <si>
+    <t>gym for women</t>
+  </si>
+  <si>
+    <t>two shirt</t>
+  </si>
+  <si>
+    <t>women long shirt</t>
+  </si>
+  <si>
+    <t>pink victoria secret fanny packs for women</t>
+  </si>
+  <si>
+    <t>leggings by pink victoria secret</t>
+  </si>
+  <si>
+    <t>crop tights</t>
+  </si>
+  <si>
+    <t>pantalon deportivo para mujer</t>
+  </si>
+  <si>
+    <t>victorias secret pink sweatpants</t>
+  </si>
+  <si>
+    <t>shirt set for women</t>
+  </si>
+  <si>
+    <t>long sleeve gym shirt women</t>
+  </si>
+  <si>
+    <t>crop too and pants set</t>
+  </si>
+  <si>
+    <t>women yoga outfits</t>
+  </si>
+  <si>
+    <t>joggers pink victoria secret</t>
+  </si>
+  <si>
+    <t>champion womens sweatsuit</t>
+  </si>
+  <si>
+    <t>winter women shirts</t>
+  </si>
+  <si>
+    <t>gym sets</t>
+  </si>
+  <si>
+    <t>puma sweat suits for women</t>
+  </si>
+  <si>
+    <t>gym material set</t>
+  </si>
+  <si>
+    <t>winter two piece outfits for women</t>
+  </si>
+  <si>
+    <t>pink long shirt</t>
+  </si>
+  <si>
+    <t>black sweatsuit for women</t>
+  </si>
+  <si>
+    <t>sweat shirts women</t>
+  </si>
+  <si>
+    <t>long sleeve gym shirts for women</t>
+  </si>
+  <si>
+    <t>clothes for women crop top</t>
+  </si>
+  <si>
+    <t>pink victoria secret flip flops for women</t>
+  </si>
+  <si>
+    <t>womens victoria secret pink sweatpants</t>
+  </si>
+  <si>
+    <t>two piece outfits for women winter</t>
+  </si>
+  <si>
+    <t>puma sweat suit for women</t>
+  </si>
+  <si>
+    <t>activewear sets women</t>
+  </si>
+  <si>
+    <t>sports suits</t>
+  </si>
+  <si>
+    <t>conjunto deportivo para mujer adidas</t>
+  </si>
+  <si>
+    <t>matching clothing set</t>
+  </si>
+  <si>
+    <t>sexy sweat suits women</t>
+  </si>
+  <si>
+    <t>crop pants suits for women</t>
+  </si>
+  <si>
+    <t>black long sleeve shirt women cropped</t>
+  </si>
+  <si>
+    <t>two piece active outfits for women</t>
+  </si>
+  <si>
+    <t>sexy women suits for work 2 pieces</t>
+  </si>
+  <si>
+    <t>pink two piece set for women</t>
+  </si>
+  <si>
+    <t>burgundy women sweatsuit</t>
+  </si>
+  <si>
+    <t>two piece set for women winter</t>
+  </si>
+  <si>
+    <t>women's exercise &amp; fitness apparel</t>
+  </si>
+  <si>
+    <t>womens yoga outfits 2 piece set</t>
+  </si>
+  <si>
+    <t>jetjoy workout sets for women 2</t>
+  </si>
+  <si>
+    <t>brown sweat suits for women</t>
+  </si>
+  <si>
+    <t>outfits women</t>
   </si>
 </sst>
 </file>
@@ -679,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1025,165 +929,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8158A93-9579-4C1D-9B05-DE40AFD881EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAC0AE-7448-4A8E-8100-FD6276B80335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,217 +25,313 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
-  <si>
-    <t>womens long sleeve gym shirt</t>
-  </si>
-  <si>
-    <t>crop top with zipper in front</t>
-  </si>
-  <si>
-    <t>blue apparel for women</t>
-  </si>
-  <si>
-    <t>long crop workout top</t>
-  </si>
-  <si>
-    <t>winter fitness clothing</t>
-  </si>
-  <si>
-    <t>outfits for women for gym</t>
-  </si>
-  <si>
-    <t>pans para mujer para frio 2 piezas</t>
-  </si>
-  <si>
-    <t>womens lounge suits sets</t>
-  </si>
-  <si>
-    <t>womens sweat suits on sale</t>
-  </si>
-  <si>
-    <t>green sets women outfit</t>
-  </si>
-  <si>
-    <t>workout sets for women 2 piece outfit</t>
-  </si>
-  <si>
-    <t>shirt gym</t>
-  </si>
-  <si>
-    <t>bodybuilding shirts</t>
-  </si>
-  <si>
-    <t>fitness clothing for women</t>
-  </si>
-  <si>
-    <t>long workout shirts for women</t>
-  </si>
-  <si>
-    <t>womens fitness clothing</t>
-  </si>
-  <si>
-    <t>winter shirts for women</t>
-  </si>
-  <si>
-    <t>velvet two piece set women</t>
-  </si>
-  <si>
-    <t>vs love pink clothing</t>
-  </si>
-  <si>
-    <t>gym clothes long sleeve</t>
-  </si>
-  <si>
-    <t>green 2 piece set for women</t>
-  </si>
-  <si>
-    <t>seamless tights</t>
-  </si>
-  <si>
-    <t>long suit for women</t>
-  </si>
-  <si>
-    <t>gym for women</t>
-  </si>
-  <si>
-    <t>two shirt</t>
-  </si>
-  <si>
-    <t>women long shirt</t>
-  </si>
-  <si>
-    <t>pink victoria secret fanny packs for women</t>
-  </si>
-  <si>
-    <t>leggings by pink victoria secret</t>
-  </si>
-  <si>
-    <t>crop tights</t>
-  </si>
-  <si>
-    <t>pantalon deportivo para mujer</t>
-  </si>
-  <si>
-    <t>victorias secret pink sweatpants</t>
-  </si>
-  <si>
-    <t>shirt set for women</t>
-  </si>
-  <si>
-    <t>long sleeve gym shirt women</t>
-  </si>
-  <si>
-    <t>crop too and pants set</t>
-  </si>
-  <si>
-    <t>women yoga outfits</t>
-  </si>
-  <si>
-    <t>joggers pink victoria secret</t>
-  </si>
-  <si>
-    <t>champion womens sweatsuit</t>
-  </si>
-  <si>
-    <t>winter women shirts</t>
-  </si>
-  <si>
-    <t>gym sets</t>
-  </si>
-  <si>
-    <t>puma sweat suits for women</t>
-  </si>
-  <si>
-    <t>gym material set</t>
-  </si>
-  <si>
-    <t>winter two piece outfits for women</t>
-  </si>
-  <si>
-    <t>pink long shirt</t>
-  </si>
-  <si>
-    <t>black sweatsuit for women</t>
-  </si>
-  <si>
-    <t>sweat shirts women</t>
-  </si>
-  <si>
-    <t>long sleeve gym shirts for women</t>
-  </si>
-  <si>
-    <t>clothes for women crop top</t>
-  </si>
-  <si>
-    <t>pink victoria secret flip flops for women</t>
-  </si>
-  <si>
-    <t>womens victoria secret pink sweatpants</t>
-  </si>
-  <si>
-    <t>two piece outfits for women winter</t>
-  </si>
-  <si>
-    <t>puma sweat suit for women</t>
-  </si>
-  <si>
-    <t>activewear sets women</t>
-  </si>
-  <si>
-    <t>sports suits</t>
-  </si>
-  <si>
-    <t>conjunto deportivo para mujer adidas</t>
-  </si>
-  <si>
-    <t>matching clothing set</t>
-  </si>
-  <si>
-    <t>sexy sweat suits women</t>
-  </si>
-  <si>
-    <t>crop pants suits for women</t>
-  </si>
-  <si>
-    <t>black long sleeve shirt women cropped</t>
-  </si>
-  <si>
-    <t>two piece active outfits for women</t>
-  </si>
-  <si>
-    <t>sexy women suits for work 2 pieces</t>
-  </si>
-  <si>
-    <t>pink two piece set for women</t>
-  </si>
-  <si>
-    <t>burgundy women sweatsuit</t>
-  </si>
-  <si>
-    <t>two piece set for women winter</t>
-  </si>
-  <si>
-    <t>women's exercise &amp; fitness apparel</t>
-  </si>
-  <si>
-    <t>womens yoga outfits 2 piece set</t>
-  </si>
-  <si>
-    <t>jetjoy workout sets for women 2</t>
-  </si>
-  <si>
-    <t>brown sweat suits for women</t>
-  </si>
-  <si>
-    <t>outfits women</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>jogger woman high waist</t>
+  </si>
+  <si>
+    <t>black jogger woman</t>
+  </si>
+  <si>
+    <t>workout crop top woman</t>
+  </si>
+  <si>
+    <t>jogger set woman 2 piece</t>
+  </si>
+  <si>
+    <t>workout pant woman</t>
+  </si>
+  <si>
+    <t>workout set woman 2 piece</t>
+  </si>
+  <si>
+    <t>black pant woman</t>
+  </si>
+  <si>
+    <t>workout clothe woman</t>
+  </si>
+  <si>
+    <t>workout top woman</t>
+  </si>
+  <si>
+    <t>crop athletic jacket</t>
+  </si>
+  <si>
+    <t>tight clothe</t>
+  </si>
+  <si>
+    <t>black yoga tight</t>
+  </si>
+  <si>
+    <t>black compression tight</t>
+  </si>
+  <si>
+    <t>turquoise clothe</t>
+  </si>
+  <si>
+    <t>turquoise piece</t>
+  </si>
+  <si>
+    <t>fitness tight</t>
+  </si>
+  <si>
+    <t>crop tight</t>
+  </si>
+  <si>
+    <t>clothe compression</t>
+  </si>
+  <si>
+    <t>turquoise tight</t>
+  </si>
+  <si>
+    <t>piece black</t>
+  </si>
+  <si>
+    <t>athletic tight</t>
+  </si>
+  <si>
+    <t>fitness clothe</t>
+  </si>
+  <si>
+    <t>compression yoga tight</t>
+  </si>
+  <si>
+    <t>clothe outfit</t>
+  </si>
+  <si>
+    <t>athletic clothe</t>
+  </si>
+  <si>
+    <t>black clothe</t>
+  </si>
+  <si>
+    <t>yoga clothe</t>
+  </si>
+  <si>
+    <t>athletic sport</t>
+  </si>
+  <si>
+    <t>fitness jogger</t>
+  </si>
+  <si>
+    <t>jogging legging</t>
+  </si>
+  <si>
+    <t>seamless athletic legging</t>
+  </si>
+  <si>
+    <t>two set top</t>
+  </si>
+  <si>
+    <t>seamless legging set</t>
+  </si>
+  <si>
+    <t>long workout legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging high waist</t>
+  </si>
+  <si>
+    <t>2 piece seamless workout outfit</t>
+  </si>
+  <si>
+    <t>crop workout legging</t>
+  </si>
+  <si>
+    <t>yoga seamless outfit</t>
+  </si>
+  <si>
+    <t>2 piece outfit long sleeve</t>
+  </si>
+  <si>
+    <t>yoga 2 piece</t>
+  </si>
+  <si>
+    <t>long sleeve workout outfit</t>
+  </si>
+  <si>
+    <t>high waist crop legging</t>
+  </si>
+  <si>
+    <t>waist legging</t>
+  </si>
+  <si>
+    <t>legging yoga workout</t>
+  </si>
+  <si>
+    <t>high waist legging long</t>
+  </si>
+  <si>
+    <t>high legging</t>
+  </si>
+  <si>
+    <t>long sleeve crop top outfit</t>
+  </si>
+  <si>
+    <t>long sleeve top legging</t>
+  </si>
+  <si>
+    <t>yoga top legging</t>
+  </si>
+  <si>
+    <t>jogger legging</t>
+  </si>
+  <si>
+    <t>seamless yoga legging</t>
+  </si>
+  <si>
+    <t>high waist yoga legging</t>
+  </si>
+  <si>
+    <t>high waist seamless legging</t>
+  </si>
+  <si>
+    <t>long top legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging</t>
+  </si>
+  <si>
+    <t>long sleeve</t>
+  </si>
+  <si>
+    <t>work out</t>
+  </si>
+  <si>
+    <t>fashion top</t>
+  </si>
+  <si>
+    <t>athletic sleeve</t>
+  </si>
+  <si>
+    <t>gym shirt</t>
+  </si>
+  <si>
+    <t>two piece</t>
+  </si>
+  <si>
+    <t>yoga legging</t>
+  </si>
+  <si>
+    <t>workout waist</t>
+  </si>
+  <si>
+    <t>yoga workout</t>
+  </si>
+  <si>
+    <t>yoga workout top</t>
+  </si>
+  <si>
+    <t>track set</t>
+  </si>
+  <si>
+    <t>yoga fitness</t>
+  </si>
+  <si>
+    <t>yoga jacket</t>
+  </si>
+  <si>
+    <t>yoga outfit</t>
+  </si>
+  <si>
+    <t>bodybuilding shirt</t>
+  </si>
+  <si>
+    <t>turquoise jacket</t>
+  </si>
+  <si>
+    <t>sport apparel</t>
+  </si>
+  <si>
+    <t>high top</t>
+  </si>
+  <si>
+    <t>fitness apparel</t>
+  </si>
+  <si>
+    <t>crop top</t>
+  </si>
+  <si>
+    <t>sleeve top</t>
+  </si>
+  <si>
+    <t>fashion set</t>
+  </si>
+  <si>
+    <t>high waist black pant</t>
+  </si>
+  <si>
+    <t>legging crop top set</t>
+  </si>
+  <si>
+    <t>workout 2 piece</t>
+  </si>
+  <si>
+    <t>workout apparel</t>
+  </si>
+  <si>
+    <t>workout crop top</t>
+  </si>
+  <si>
+    <t>workout matching set</t>
+  </si>
+  <si>
+    <t>workout outfit set</t>
+  </si>
+  <si>
+    <t>workout set</t>
+  </si>
+  <si>
+    <t>workout legging</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>workout gym</t>
+  </si>
+  <si>
+    <t>workout outfit</t>
+  </si>
+  <si>
+    <t>gym workout set</t>
+  </si>
+  <si>
+    <t>workout shirt</t>
+  </si>
+  <si>
+    <t>workout shirt long sleeve</t>
+  </si>
+  <si>
+    <t>long sleeve shirt</t>
+  </si>
+  <si>
+    <t>pink long sleeve shirt</t>
+  </si>
+  <si>
+    <t>sport shirt</t>
+  </si>
+  <si>
+    <t>black suit</t>
+  </si>
+  <si>
+    <t>black jacket</t>
+  </si>
+  <si>
+    <t>black legging</t>
+  </si>
+  <si>
+    <t>2 piece</t>
+  </si>
+  <si>
+    <t>black long sleeve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,27 +346,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -282,30 +364,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -583,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -929,23 +997,168 @@
         <v>67</v>
       </c>
     </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A97:A100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>